--- a/resources/template_tool_hh.xlsx
+++ b/resources/template_tool_hh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted.sharepoint.com/sites/IMPACTHQ-Accountability&amp;Inclusion/Documents partages/General/12_Accountability to Affected People Specialist/07_Hesper Scale/6. Hesper HH adaptation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/raphael_bacot_impact-initiatives_org/Documents/git/hespeR/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="13_ncr:1_{FC0AD072-D7BB-42DC-907A-83B5CD6FB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FB3BF97-7380-4D8F-879A-28112EEF73F2}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="13_ncr:1_{FC0AD072-D7BB-42DC-907A-83B5CD6FB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A4F55D7-71F3-4451-AE4D-8ADFB66FD65B}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-5970" windowWidth="14610" windowHeight="15585" tabRatio="681" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="681" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 README" sheetId="1" state="hidden" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="1481">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -4890,12 +4890,6 @@
     <t>Cannot select "None", "Prefer not to answer", "Don't know" with any other option</t>
   </si>
   <si>
-    <t>hesper_health_care_men</t>
-  </si>
-  <si>
-    <t>hesper_health_care_women</t>
-  </si>
-  <si>
     <t>aap_hesper_33</t>
   </si>
   <si>
@@ -4915,6 +4909,208 @@
   </si>
   <si>
     <t>aap_hesper_34</t>
+  </si>
+  <si>
+    <t>Hygiène et maintien de la propreté (savon, eau, endroit approprié pour se laver)</t>
+  </si>
+  <si>
+    <t>Individual hygiene and keep clean (soap, water or a suitable place to wash)</t>
+  </si>
+  <si>
+    <t>displaced</t>
+  </si>
+  <si>
+    <t>What is the displacement status of the household?</t>
+  </si>
+  <si>
+    <t>Quel est le statut de déplacement du ménage?</t>
+  </si>
+  <si>
+    <t>select_one displacement</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>Host population</t>
+  </si>
+  <si>
+    <t>Displaced</t>
+  </si>
+  <si>
+    <t>Population hote</t>
+  </si>
+  <si>
+    <t>Population déplacée</t>
+  </si>
+  <si>
+    <t>pop_group</t>
+  </si>
+  <si>
+    <t>Individual hygiene and keep clean for women (menstrual hygiene materials)</t>
+  </si>
+  <si>
+    <t>Hygiène et maintien de la propreté pour les femmes (matériel d'hygiène menstruelle)</t>
+  </si>
+  <si>
+    <t>selected(${pop_group}, 'displaced')</t>
+  </si>
+  <si>
+    <t>if selected "women" to question "resp_gender"</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que vous n’avez pas d’endroit convenable pour vivre ?</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que vous n’avez pas un accès facile ou sans danger à des toilettes propres ?</t>
+  </si>
+  <si>
+    <t>Est-ce qu'un ou plusieurs membres de votre ménage a un problème grave en raison de difficultés à se maintenir propre? Par exemple, en raison du manque de savon, d'eau ou de lieu de lavage approprié?</t>
+  </si>
+  <si>
+    <t>[Si la répondante est une femme] Est-ce que certaines femmes dans votre ménage ont un problème grave en raison de difficultés à se maintenir propres en raison du manque de matériel d'hygiène menstruelle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre ménage a t'il un grave problème lié à un manque de revenus, d’argent ou de ressources pour vivre ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce que quelqu'un dans votre ménage a un grave problème de santé physique ? Par exemple, quelqu'un souffre d’une maladie physique, d’une blessure ou d’un handicap physique
+</t>
+  </si>
+  <si>
+    <t>Les hommes de votre ménage ont-ils un problème grave parce que ils ne sont pas en mesure d'obtenir des soins de santé adéquats ? Par exemple, un traitement ou des médicaments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les femmes de votre ménage ont-elles un problème grave parce qu'elles ne sont pas en mesure d'obtenir des soins de santé adéquats ? Par exemple, les traitements ou les médicaments, ou les soins de santé pendant la grossesse ou l'accouchement.
+</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que, dans votre situation, il est difficile de prendre soin des membres de la famille qui vivent avec vous ? Par exemple, des enfants en bas âge ou bien des membres de votre famille âgés, souffrant d’un handicap ou d’une maladie mentale ou physique , moteur, visuel, auditif, sensoriel, chronique.</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que vous êtes séparé de certaines membres de votre ménage ?</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que vous êtes déplacé de votre pays, ville ou village?</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème en raison d’une aide humanitaire inadéquate ? Par exemple, vous n’avez pas un accès équitable à l’aide humanitaire disponible ou les organisations d’aide humanitaire travaillent de leur côté sans impliquer les personnes de votre communauté.</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que vous ne vous sentez pas respecté ou vous vous sentez humilié ? Par exemple, en raison de la situation dans laquelle vous vivez ou en raison de la manière dont les gens vous traitent.</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que vous ne pouvez pas vous déplacer d’un lieu à l’autre? Par exemple à un autre village ou une autre ville</t>
+  </si>
+  <si>
+    <t>Est-ce qu'un ou plusieurs membres de votre ménage ont un grave problème du fait que ils ont trop de temps libre dans une journée ?</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que vos enfants ne vont pas à l’école ou ne reçoivent pas une éducation suffisante?</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème lié à un manque de soutien des personnes de votre communauté, notamment un soutien émotionnel ou une aide pratique ?</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème de nourriture ? Par exemple, vous manquez de nourriture, vous n’avez pas de bonne nourriture ou vous ne pouvez pas cuisiner.</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un problème grave du fait que vous manquez ou n’avez pas de bons vêtements, chaussures, articles de literie ou couvertures ?</t>
+  </si>
+  <si>
+    <t>Est-ce qu'un ou plusieurs membres de votre ménage a un grave problème du fait d'un sentiment d’extrême détresse ? Par exemple, ils sont bouleversés, tristse, inquiets, ont peur ou sont en colère.</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un grave problème du fait que vous n’êtes pas en sécurité ou protégés où vous vivez aujourd’hui? Par exemple, à cause d'un conflit, de la violence ou de la criminalité dans votre communauté, ville ou village.</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Votre ménage a-t-il un problème grave parce qu'il n'a pas assez d'eau potable ou d'eau pour cuisiner ?</t>
+  </si>
+  <si>
+    <t>Do you have a serious problem because you do not have enough information? For example, because you do not have enough information (about the aid that is available, access to services, about what is happening in home country or home town if you are displaced,…)</t>
+  </si>
+  <si>
+    <t>Is there a serious problem in your community because people have a mental health issues?</t>
+  </si>
+  <si>
+    <t>Is there a serious problem in your community because there is not enough care for people who are on their own? For example, care for unaccompanied children, widows or elderly people, or unaccompanied people who have a physical or mental health issues, or disability.</t>
+  </si>
+  <si>
+    <t>Y a-t-il un problème grave dans votre communauté parce qu'il n'y a pas assez de soins pour les personnes qui sont seules ? Par exemple, les enfants non accompagnés, les veuves ou les personnes âgées, ou les personnes non accompagnées souffrant d'une maladie physique ou de problèmes de santé mentale, ou d'un handicap.</t>
+  </si>
+  <si>
+    <t>Y a-t-il un problème grave dans votre communauté parce que des personnes ont des problèmes de santé mentale?</t>
+  </si>
+  <si>
+    <t>If selected "displaced" to question "pop_group"</t>
+  </si>
+  <si>
+    <t>If there is at least one selected serious problem, choice filtering among the selected serious problems</t>
+  </si>
+  <si>
+    <t>If there is at least two selected serious problems, choice filtering among the selected serious problems excluding first priority</t>
+  </si>
+  <si>
+    <t>If there is at least three selected serious problems, choice filtering among the selected serious problems excluding first and second priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avez-vous un problème grave parce que vous n'avez pas assez d'informations ? Par exemple, parce que vous n'avez pas assez d'informations (sur l'aide disponible, sur l'accès aux services, sur ce qui se passe dans votre ville ou pays d'origine si vous êtes déplacé-e, etc.)
+</t>
+  </si>
+  <si>
+    <t>Does your household have a serious problem because in your situation it is difficult to keep clean? For example, because you do not have enough soap, water or a suitable place to wash.</t>
+  </si>
+  <si>
+    <t>Does your household have a serious problem with your physical health? For example, because someone in your household has a physical illness, injury or disability.</t>
+  </si>
+  <si>
+    <t>Do women in your household have a serious problem because you are not able to get adequate health care for household members? For example, treatment or medicines, or health care during pregnancy or childbirth.</t>
+  </si>
+  <si>
+    <t>Do men in your household have a serious problem because you are not able to get adequate health care for household members? For example, treatment or medicines.</t>
+  </si>
+  <si>
+    <t>[If the respondent is a woman] do women in your household have a serious problem because in your situation it is difficult to keep clean because you do not have enough menstrual hygiene materials?</t>
+  </si>
+  <si>
+    <t>[If respondent is displaced] Does your household have a serious problem because you have been displaced from your home country, city or village?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does your household have a serious problem because in your situation it is difficult to care for other household members? For example, young children in your household, or household members who are elderly, or with a physical or mental health issue or a disability </t>
+  </si>
+  <si>
+    <t>hesper_health_care_male</t>
+  </si>
+  <si>
+    <t>hesper_maletal_health</t>
+  </si>
+  <si>
+    <t>hesper_clean_female</t>
+  </si>
+  <si>
+    <t>hesper_health_care_female</t>
   </si>
   <si>
     <t>(if(selected(${hesper_drinking_water}, 'serious_problem'),1,0) + 
@@ -4922,12 +5118,12 @@
 if(selected(${hesper_shelter}, 'serious_problem'),1,0) + 
 if(selected(${hesper_toilet}, 'serious_problem'),1,0) + 
 if(selected(${hesper_clean}, 'serious_problem'),1,0) + 
-if(selected(${hesper_clean_women}, 'serious_problem'),1,0) + 
+if(selected(${hesper_clean_female}, 'serious_problem'),1,0) + 
 if(selected(${hesper_clothes_etc}, 'serious_problem'),1,0) + 
 if(selected(${hesper_income_livelihood}, 'serious_problem'),1,0) + 
 if(selected(${hesper_health}, 'serious_problem'),1,0) + 
-if(selected(${hesper_health_care_men}, 'serious_problem'),1,0) + 
-if(selected(${hesper_health_care_women}, 'serious_problem'),1,0) + 
+if(selected(${hesper_health_care_male}, 'serious_problem'),1,0) + 
+if(selected(${hesper_health_care_female}, 'serious_problem'),1,0) + 
 if(selected(${hesper_distress}, 'serious_problem'),1,0) + 
 if(selected(${hesper_safety}, 'serious_problem'),1,0) + 
 if(selected(${hesper_education}, 'serious_problem'),1,0) + 
@@ -4948,62 +5144,17 @@
 if(selected(${hesper_other}, 'serious_problem'),1,0)) &gt;= 1</t>
   </si>
   <si>
-    <t>Hygiène et maintien de la propreté (savon, eau, endroit approprié pour se laver)</t>
-  </si>
-  <si>
-    <t>Individual hygiene and keep clean (soap, water or a suitable place to wash)</t>
-  </si>
-  <si>
-    <t>displaced</t>
-  </si>
-  <si>
-    <t>What is the displacement status of the household?</t>
-  </si>
-  <si>
-    <t>Quel est le statut de déplacement du ménage?</t>
-  </si>
-  <si>
-    <t>select_one displacement</t>
-  </si>
-  <si>
-    <t>displacement</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>Host population</t>
-  </si>
-  <si>
-    <t>Displaced</t>
-  </si>
-  <si>
-    <t>Population hote</t>
-  </si>
-  <si>
-    <t>Population déplacée</t>
-  </si>
-  <si>
-    <t>pop_group</t>
-  </si>
-  <si>
-    <t>Individual hygiene and keep clean for women (menstrual hygiene materials)</t>
-  </si>
-  <si>
-    <t>Hygiène et maintien de la propreté pour les femmes (matériel d'hygiène menstruelle)</t>
-  </si>
-  <si>
     <t>(visible=${hesper_drinking_water} and filter_2='hesper_drinking_water') or 
 (visible=${hesper_food} and filter_2='hesper_food') or 
 (visible=${hesper_shelter} and filter_2='hesper_shelter') or 
 (visible=${hesper_toilet} and filter_2='hesper_toilet') or 
 (visible=${hesper_clean} and filter_2='hesper_clean') or 
-(visible=${hesper_clean_women} and filter_2='hesper_clean_women') or 
+(visible=${hesper_clean_female} and filter_2='hesper_clean_female') or 
 (visible=${hesper_clothes_etc} and filter_2='hesper_clothes_etc') or 
 (visible=${hesper_income_livelihood} and filter_2='hesper_income_livelihood') or 
 (visible=${hesper_health} and filter_2='hesper_health') or 
-(visible=${hesper_health_care_men} and filter_2='hesper_health_care_men') or 
-(visible=${hesper_health_care_women} and filter_2='hesper_health_care_women') or 
+(visible=${hesper_health_care_male} and filter_2='hesper_health_care_male') or 
+(visible=${hesper_health_care_female} and filter_2='hesper_health_care_female') or 
 (visible=${hesper_distress} and filter_2='hesper_distress') or 
 (visible=${hesper_safety} and filter_2='hesper_safety') or 
 (visible=${hesper_education} and filter_2='hesper_education') or 
@@ -5029,12 +5180,12 @@
 (visible=${hesper_shelter} and filter_2='hesper_shelter') or 
 (visible=${hesper_toilet} and filter_2='hesper_toilet') or 
 (visible=${hesper_clean} and filter_2='hesper_clean') or 
-(visible=${hesper_clean_women} and filter_2='hesper_clean_women') or 
+(visible=${hesper_clean_female} and filter_2='hesper_clean_female') or 
 (visible=${hesper_clothes_etc} and filter_2='hesper_clothes_etc') or 
 (visible=${hesper_income_livelihood} and filter_2='hesper_income_livelihood') or 
 (visible=${hesper_health} and filter_2='hesper_health') or 
-(visible=${hesper_health_care_men} and filter_2='hesper_health_care_men') or 
-(visible=${hesper_health_care_women} and filter_2='hesper_health_care_women') or 
+(visible=${hesper_health_care_male} and filter_2='hesper_health_care_male') or 
+(visible=${hesper_health_care_female} and filter_2='hesper_health_care_female') or 
 (visible=${hesper_distress} and filter_2='hesper_distress') or 
 (visible=${hesper_safety} and filter_2='hesper_safety') or 
 (visible=${hesper_education} and filter_2='hesper_education') or 
@@ -5061,12 +5212,12 @@
 (visible=${hesper_shelter} and filter_2='hesper_shelter') or 
 (visible=${hesper_toilet} and filter_2='hesper_toilet') or 
 (visible=${hesper_clean} and filter_2='hesper_clean') or 
-(visible=${hesper_clean_women} and filter_2='hesper_clean_women') or 
+(visible=${hesper_clean_female} and filter_2='hesper_clean_female') or 
 (visible=${hesper_clothes_etc} and filter_2='hesper_clothes_etc') or 
 (visible=${hesper_income_livelihood} and filter_2='hesper_income_livelihood') or 
 (visible=${hesper_health} and filter_2='hesper_health') or 
-(visible=${hesper_health_care_men} and filter_2='hesper_health_care_men') or 
-(visible=${hesper_health_care_women} and filter_2='hesper_health_care_women') or 
+(visible=${hesper_health_care_male} and filter_2='hesper_health_care_male') or 
+(visible=${hesper_health_care_female} and filter_2='hesper_health_care_female') or 
 (visible=${hesper_distress} and filter_2='hesper_distress') or 
 (visible=${hesper_safety} and filter_2='hesper_safety') or 
 (visible=${hesper_education} and filter_2='hesper_education') or 
@@ -5089,155 +5240,13 @@
 (filter_2!=${hesper_priority_second})</t>
   </si>
   <si>
-    <t>selected(${pop_group}, 'displaced')</t>
-  </si>
-  <si>
-    <t>if selected "women" to question "resp_gender"</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que vous n’avez pas d’endroit convenable pour vivre ?</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que vous n’avez pas un accès facile ou sans danger à des toilettes propres ?</t>
-  </si>
-  <si>
-    <t>Est-ce qu'un ou plusieurs membres de votre ménage a un problème grave en raison de difficultés à se maintenir propre? Par exemple, en raison du manque de savon, d'eau ou de lieu de lavage approprié?</t>
-  </si>
-  <si>
-    <t>[Si la répondante est une femme] Est-ce que certaines femmes dans votre ménage ont un problème grave en raison de difficultés à se maintenir propres en raison du manque de matériel d'hygiène menstruelle?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre ménage a t'il un grave problème lié à un manque de revenus, d’argent ou de ressources pour vivre ?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est-ce que quelqu'un dans votre ménage a un grave problème de santé physique ? Par exemple, quelqu'un souffre d’une maladie physique, d’une blessure ou d’un handicap physique
-</t>
-  </si>
-  <si>
-    <t>Les hommes de votre ménage ont-ils un problème grave parce que ils ne sont pas en mesure d'obtenir des soins de santé adéquats ? Par exemple, un traitement ou des médicaments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les femmes de votre ménage ont-elles un problème grave parce qu'elles ne sont pas en mesure d'obtenir des soins de santé adéquats ? Par exemple, les traitements ou les médicaments, ou les soins de santé pendant la grossesse ou l'accouchement.
-</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que, dans votre situation, il est difficile de prendre soin des membres de la famille qui vivent avec vous ? Par exemple, des enfants en bas âge ou bien des membres de votre famille âgés, souffrant d’un handicap ou d’une maladie mentale ou physique , moteur, visuel, auditif, sensoriel, chronique.</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que vous êtes séparé de certaines membres de votre ménage ?</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que vous êtes déplacé de votre pays, ville ou village?</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème en raison d’une aide humanitaire inadéquate ? Par exemple, vous n’avez pas un accès équitable à l’aide humanitaire disponible ou les organisations d’aide humanitaire travaillent de leur côté sans impliquer les personnes de votre communauté.</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que vous ne vous sentez pas respecté ou vous vous sentez humilié ? Par exemple, en raison de la situation dans laquelle vous vivez ou en raison de la manière dont les gens vous traitent.</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que vous ne pouvez pas vous déplacer d’un lieu à l’autre? Par exemple à un autre village ou une autre ville</t>
-  </si>
-  <si>
-    <t>Est-ce qu'un ou plusieurs membres de votre ménage ont un grave problème du fait que ils ont trop de temps libre dans une journée ?</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que vos enfants ne vont pas à l’école ou ne reçoivent pas une éducation suffisante?</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème lié à un manque de soutien des personnes de votre communauté, notamment un soutien émotionnel ou une aide pratique ?</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème de nourriture ? Par exemple, vous manquez de nourriture, vous n’avez pas de bonne nourriture ou vous ne pouvez pas cuisiner.</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un problème grave du fait que vous manquez ou n’avez pas de bons vêtements, chaussures, articles de literie ou couvertures ?</t>
-  </si>
-  <si>
-    <t>Est-ce qu'un ou plusieurs membres de votre ménage a un grave problème du fait d'un sentiment d’extrême détresse ? Par exemple, ils sont bouleversés, tristse, inquiets, ont peur ou sont en colère.</t>
-  </si>
-  <si>
-    <t>Votre ménage a t'il un grave problème du fait que vous n’êtes pas en sécurité ou protégés où vous vivez aujourd’hui? Par exemple, à cause d'un conflit, de la violence ou de la criminalité dans votre communauté, ville ou village.</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Homme</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Femme</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>Votre ménage a-t-il un problème grave parce qu'il n'a pas assez d'eau potable ou d'eau pour cuisiner ?</t>
-  </si>
-  <si>
-    <t>Do you have a serious problem because you do not have enough information? For example, because you do not have enough information (about the aid that is available, access to services, about what is happening in home country or home town if you are displaced,…)</t>
-  </si>
-  <si>
-    <t>Is there a serious problem in your community because people have a mental health issues?</t>
-  </si>
-  <si>
-    <t>Is there a serious problem in your community because there is not enough care for people who are on their own? For example, care for unaccompanied children, widows or elderly people, or unaccompanied people who have a physical or mental health issues, or disability.</t>
-  </si>
-  <si>
-    <t>Y a-t-il un problème grave dans votre communauté parce qu'il n'y a pas assez de soins pour les personnes qui sont seules ? Par exemple, les enfants non accompagnés, les veuves ou les personnes âgées, ou les personnes non accompagnées souffrant d'une maladie physique ou de problèmes de santé mentale, ou d'un handicap.</t>
-  </si>
-  <si>
-    <t>Y a-t-il un problème grave dans votre communauté parce que des personnes ont des problèmes de santé mentale?</t>
-  </si>
-  <si>
-    <t>If selected "displaced" to question "pop_group"</t>
-  </si>
-  <si>
-    <t>If there is at least one selected serious problem, choice filtering among the selected serious problems</t>
-  </si>
-  <si>
-    <t>If there is at least two selected serious problems, choice filtering among the selected serious problems excluding first priority</t>
-  </si>
-  <si>
-    <t>If there is at least three selected serious problems, choice filtering among the selected serious problems excluding first and second priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avez-vous un problème grave parce que vous n'avez pas assez d'informations ? Par exemple, parce que vous n'avez pas assez d'informations (sur l'aide disponible, sur l'accès aux services, sur ce qui se passe dans votre ville ou pays d'origine si vous êtes déplacé-e, etc.)
-</t>
-  </si>
-  <si>
-    <t>Does your household have a serious problem because in your situation it is difficult to keep clean? For example, because you do not have enough soap, water or a suitable place to wash.</t>
-  </si>
-  <si>
-    <t>Does your household have a serious problem with your physical health? For example, because someone in your household has a physical illness, injury or disability.</t>
-  </si>
-  <si>
-    <t>Do women in your household have a serious problem because you are not able to get adequate health care for household members? For example, treatment or medicines, or health care during pregnancy or childbirth.</t>
-  </si>
-  <si>
-    <t>Do men in your household have a serious problem because you are not able to get adequate health care for household members? For example, treatment or medicines.</t>
-  </si>
-  <si>
-    <t>[If the respondent is a woman] do women in your household have a serious problem because in your situation it is difficult to keep clean because you do not have enough menstrual hygiene materials?</t>
-  </si>
-  <si>
-    <t>[If respondent is displaced] Does your household have a serious problem because you have been displaced from your home country, city or village?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does your household have a serious problem because in your situation it is difficult to care for other household members? For example, young children in your household, or household members who are elderly, or with a physical or mental health issue or a disability </t>
+    <t>selected(${resp_gender}, 'female')</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -5752,7 +5761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6003,6 +6012,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6012,7 +6022,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -36423,11 +36435,11 @@
   </sheetPr>
   <dimension ref="A1:AB131"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -36828,7 +36840,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="86" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>28</v>
@@ -36847,7 +36859,7 @@
         <v>1160</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>1408</v>
+        <v>1472</v>
       </c>
       <c r="I7" s="86" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Question id]],survey!F:G,2,FALSE)</f>
@@ -36860,7 +36872,7 @@
         <v>1394</v>
       </c>
       <c r="L7" s="86" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
@@ -37058,7 +37070,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="86" t="s">
-        <v>1401</v>
+        <v>1470</v>
       </c>
       <c r="B11" s="86" t="s">
         <v>28</v>
@@ -37078,7 +37090,7 @@
       </c>
       <c r="H11" s="86" t="str">
         <f>Table1[[#This Row],[id_for_module_and_ind_id]]</f>
-        <v>hesper_health_care_men</v>
+        <v>hesper_health_care_male</v>
       </c>
       <c r="I11" s="86" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Question id]],survey!F:G,2,FALSE)</f>
@@ -37116,7 +37128,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="86" t="s">
-        <v>1402</v>
+        <v>1473</v>
       </c>
       <c r="B12" s="86" t="s">
         <v>28</v>
@@ -37136,7 +37148,7 @@
       </c>
       <c r="H12" s="86" t="str">
         <f>Table1[[#This Row],[id_for_module_and_ind_id]]</f>
-        <v>hesper_health_care_women</v>
+        <v>hesper_health_care_female</v>
       </c>
       <c r="I12" s="86" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Question id]],survey!F:G,2,FALSE)</f>
@@ -37548,7 +37560,7 @@
         <v>1394</v>
       </c>
       <c r="L19" s="86" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="M19" s="86"/>
       <c r="N19" s="86"/>
@@ -38244,7 +38256,7 @@
         <v>1395</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="M31" s="86"/>
       <c r="N31" s="86"/>
@@ -38303,7 +38315,7 @@
         <v>1396</v>
       </c>
       <c r="L32" s="92" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="M32" s="91" t="s">
         <v>1398</v>
@@ -38364,7 +38376,7 @@
         <v>1397</v>
       </c>
       <c r="L33" s="92" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="M33" s="91" t="s">
         <v>1399</v>
@@ -38406,7 +38418,7 @@
         <v>1290</v>
       </c>
       <c r="F34" s="92" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="G34" s="93" t="s">
         <v>1323</v>
@@ -41277,11 +41289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6856AF4C-2F5B-4199-AEA4-5B4DBC01D92C}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -41289,7 +41301,7 @@
     <col min="1" max="1" width="10.5546875" style="30" customWidth="1"/>
     <col min="2" max="2" width="7.109375" style="30" customWidth="1"/>
     <col min="3" max="3" width="5.77734375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="30" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="30" customWidth="1"/>
     <col min="6" max="6" width="21.5546875" style="30" customWidth="1"/>
     <col min="7" max="7" width="39" style="30" customWidth="1"/>
@@ -41422,26 +41434,26 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>161</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="L3" s="31"/>
       <c r="N3" s="31"/>
@@ -41492,7 +41504,7 @@
         <v>984</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="I5" s="31" t="str">
         <f>J5&amp;" "&amp;K5</f>
@@ -41535,7 +41547,7 @@
         <v>985</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="I6" s="31" t="str">
         <f t="shared" ref="I6:I27" si="1">J6&amp;" "&amp;K6</f>
@@ -41578,7 +41590,7 @@
         <v>986</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="I7" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41621,7 +41633,7 @@
         <v>987</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="I8" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41661,10 +41673,10 @@
         <v>1066</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="I9" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41686,7 +41698,7 @@
     <row r="10" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="str">
         <f t="shared" ref="A10" si="2">F10</f>
-        <v>hesper_clean_women</v>
+        <v>hesper_clean_female</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>28</v>
@@ -41695,19 +41707,19 @@
         <v>1071</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>1408</v>
+        <v>1472</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>1296</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>1408</v>
+        <v>1472</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="I10" s="31" t="str">
         <f t="shared" ref="I10" si="3">J10&amp;" "&amp;K10</f>
@@ -41720,7 +41732,7 @@
         <v>1071</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>1359</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
@@ -41747,7 +41759,7 @@
         <v>988</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="I11" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41790,7 +41802,7 @@
         <v>989</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="I12" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41830,10 +41842,10 @@
         <v>1009</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="I13" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41855,7 +41867,7 @@
     <row r="14" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>hesper_health_care_men</v>
+        <v>hesper_health_care_male</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>28</v>
@@ -41864,20 +41876,20 @@
         <v>1071</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>1401</v>
+        <v>1470</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>1300</v>
       </c>
       <c r="F14" s="31" t="str">
         <f>D14</f>
-        <v>hesper_health_care_men</v>
+        <v>hesper_health_care_male</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="I14" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41899,7 +41911,7 @@
     <row r="15" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>hesper_health_care_women</v>
+        <v>hesper_health_care_female</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>28</v>
@@ -41908,20 +41920,20 @@
         <v>1071</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>1402</v>
+        <v>1473</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>1301</v>
       </c>
       <c r="F15" s="31" t="str">
         <f>D15</f>
-        <v>hesper_health_care_women</v>
+        <v>hesper_health_care_female</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="I15" s="31" t="str">
         <f t="shared" ref="I15" si="4">J15&amp;" "&amp;K15</f>
@@ -41958,7 +41970,7 @@
         <v>991</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="I16" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42001,7 +42013,7 @@
         <v>992</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="I17" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42044,7 +42056,7 @@
         <v>993</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="I18" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42084,10 +42096,10 @@
         <v>1012</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="I19" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42130,7 +42142,7 @@
         <v>995</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="I20" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42173,7 +42185,7 @@
         <v>996</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="I21" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42213,10 +42225,10 @@
         <v>1015</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="I22" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42229,7 +42241,7 @@
         <v>1071</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="R22" s="31" t="s">
         <v>1072</v>
@@ -42259,10 +42271,10 @@
         <v>1032</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="I23" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42305,7 +42317,7 @@
         <v>998</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="I24" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42348,7 +42360,7 @@
         <v>999</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="I25" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42391,7 +42403,7 @@
         <v>1000</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="I26" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42434,7 +42446,7 @@
         <v>1001</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="I27" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42656,10 +42668,10 @@
         <v>1023</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H33" s="99" t="s">
-        <v>1465</v>
+        <v>1454</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>1457</v>
       </c>
       <c r="I33" s="31" t="str">
         <f t="shared" si="5"/>
@@ -42699,10 +42711,10 @@
         <v>1024</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>1463</v>
-      </c>
-      <c r="H34" s="99" t="s">
-        <v>1464</v>
+        <v>1455</v>
+      </c>
+      <c r="H34" s="96" t="s">
+        <v>1456</v>
       </c>
       <c r="I34" s="31" t="str">
         <f>J34&amp;" "&amp;K34</f>
@@ -42783,8 +42795,8 @@
         <v>1073</v>
       </c>
       <c r="H37" s="74"/>
-      <c r="L37" s="45" t="s">
-        <v>1410</v>
+      <c r="L37" s="100" t="s">
+        <v>1474</v>
       </c>
       <c r="X37" s="45">
         <v>216</v>
@@ -42811,8 +42823,8 @@
       </c>
       <c r="J38" s="31"/>
       <c r="K38" s="31"/>
-      <c r="L38" s="31" t="s">
-        <v>1410</v>
+      <c r="L38" s="77" t="s">
+        <v>1474</v>
       </c>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
@@ -42854,8 +42866,8 @@
       <c r="K39" s="29" t="s">
         <v>1090</v>
       </c>
-      <c r="L39" s="31" t="s">
-        <v>1410</v>
+      <c r="L39" s="77" t="s">
+        <v>1474</v>
       </c>
       <c r="N39" s="31" t="s">
         <v>172</v>
@@ -42863,8 +42875,8 @@
       <c r="R39" s="31" t="s">
         <v>1201</v>
       </c>
-      <c r="V39" s="31" t="s">
-        <v>1426</v>
+      <c r="V39" s="77" t="s">
+        <v>1475</v>
       </c>
       <c r="X39" s="31">
         <v>218</v>
@@ -42903,8 +42915,8 @@
       <c r="K40" s="29" t="s">
         <v>1090</v>
       </c>
-      <c r="L40" s="31" t="s">
-        <v>1410</v>
+      <c r="L40" s="77" t="s">
+        <v>1474</v>
       </c>
       <c r="N40" s="31" t="s">
         <v>172</v>
@@ -42912,8 +42924,8 @@
       <c r="R40" s="31" t="s">
         <v>1201</v>
       </c>
-      <c r="V40" s="31" t="s">
-        <v>1427</v>
+      <c r="V40" s="77" t="s">
+        <v>1476</v>
       </c>
       <c r="X40" s="31">
         <v>219</v>
@@ -42952,8 +42964,8 @@
       <c r="K41" s="29" t="s">
         <v>1090</v>
       </c>
-      <c r="L41" s="31" t="s">
-        <v>1410</v>
+      <c r="L41" s="77" t="s">
+        <v>1474</v>
       </c>
       <c r="N41" s="31" t="s">
         <v>172</v>
@@ -42961,8 +42973,8 @@
       <c r="R41" s="31" t="s">
         <v>1201</v>
       </c>
-      <c r="V41" s="31" t="s">
-        <v>1428</v>
+      <c r="V41" s="77" t="s">
+        <v>1477</v>
       </c>
       <c r="X41" s="31">
         <v>220</v>
@@ -42983,7 +42995,7 @@
         <v>1213</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>1213</v>
@@ -43003,8 +43015,8 @@
       <c r="K42" s="29" t="s">
         <v>801</v>
       </c>
-      <c r="L42" s="31" t="s">
-        <v>1410</v>
+      <c r="L42" s="77" t="s">
+        <v>1474</v>
       </c>
       <c r="N42" s="31" t="s">
         <v>336</v>
@@ -43016,8 +43028,8 @@
         <v>0</v>
       </c>
       <c r="U42" s="32"/>
-      <c r="V42" s="31" t="s">
-        <v>1426</v>
+      <c r="V42" s="77" t="s">
+        <v>1475</v>
       </c>
       <c r="W42" s="30">
         <v>39</v>
@@ -43041,7 +43053,7 @@
         <v>1214</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>1214</v>
@@ -43128,10 +43140,10 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -43638,10 +43650,10 @@
         <v>1066</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>1090</v>
@@ -43655,19 +43667,19 @@
         <v>1090</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>1408</v>
+        <v>1472</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>1090</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1408</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -43735,19 +43747,19 @@
         <v>1090</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>1401</v>
+        <v>1470</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>1090</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>1401</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -43755,19 +43767,19 @@
         <v>1090</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>1402</v>
+        <v>1473</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>1090</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>1402</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -44075,7 +44087,7 @@
         <v>1090</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>1023</v>
+        <v>1471</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>1111</v>
@@ -44087,7 +44099,7 @@
         <v>1090</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>1023</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -44172,30 +44184,30 @@
     </row>
     <row r="62" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B62" s="81" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C62" s="81" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D62" s="81" t="s">
         <v>1418</v>
-      </c>
-      <c r="C62" s="81" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D62" s="81" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B63" s="81" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C63" s="81" t="s">
         <v>1417</v>
       </c>
-      <c r="B63" s="81" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C63" s="81" t="s">
-        <v>1420</v>
-      </c>
       <c r="D63" s="81" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.35">
@@ -44206,13 +44218,13 @@
         <v>1363</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>1452</v>
+        <v>1479</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -44220,13 +44232,13 @@
         <v>1363</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>1455</v>
+        <v>1480</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -44237,10 +44249,10 @@
         <v>195</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
     </row>
   </sheetData>
@@ -44621,10 +44633,10 @@
       <c r="C30" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="97" t="s">
         <v>1369</v>
       </c>
-      <c r="E30" s="96" t="s">
+      <c r="E30" s="97" t="s">
         <v>1371</v>
       </c>
       <c r="H30" t="s">
@@ -44641,8 +44653,8 @@
       <c r="C31" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
       <c r="H31" t="s">
         <v>1370</v>
       </c>
@@ -44737,10 +44749,10 @@
       <c r="C36" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="D36" s="97" t="s">
+      <c r="D36" s="98" t="s">
         <v>1368</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="98" t="s">
         <v>1372</v>
       </c>
       <c r="F36" s="31"/>
@@ -44758,8 +44770,8 @@
       <c r="C37" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="31"/>
       <c r="H37" t="s">
         <v>282</v>
@@ -44775,8 +44787,8 @@
       <c r="C38" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="31"/>
       <c r="H38" t="s">
         <v>284</v>
@@ -64360,13 +64372,13 @@
       <c r="D54" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="E54" s="97" t="s">
         <v>826</v>
       </c>
-      <c r="F54" s="98" t="s">
+      <c r="F54" s="99" t="s">
         <v>815</v>
       </c>
-      <c r="G54" s="98" t="s">
+      <c r="G54" s="99" t="s">
         <v>821</v>
       </c>
     </row>
@@ -64383,9 +64395,9 @@
       <c r="D55" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="E55" s="96"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="65" t="s">
@@ -64574,13 +64586,13 @@
       <c r="D63" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="E63" s="96" t="s">
+      <c r="E63" s="97" t="s">
         <v>827</v>
       </c>
-      <c r="F63" s="98" t="s">
+      <c r="F63" s="99" t="s">
         <v>816</v>
       </c>
-      <c r="G63" s="98" t="s">
+      <c r="G63" s="99" t="s">
         <v>822</v>
       </c>
     </row>
@@ -64597,9 +64609,9 @@
       <c r="D64" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="E64" s="96"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="98"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
@@ -64689,13 +64701,13 @@
       <c r="D68" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="E68" s="98" t="s">
+      <c r="E68" s="99" t="s">
         <v>828</v>
       </c>
-      <c r="F68" s="98" t="s">
+      <c r="F68" s="99" t="s">
         <v>817</v>
       </c>
-      <c r="G68" s="98" t="s">
+      <c r="G68" s="99" t="s">
         <v>823</v>
       </c>
     </row>
@@ -64712,9 +64724,9 @@
       <c r="D69" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="E69" s="98"/>
-      <c r="F69" s="98"/>
-      <c r="G69" s="98"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
@@ -64854,13 +64866,13 @@
       <c r="D75" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="E75" s="96" t="s">
+      <c r="E75" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="F75" s="98" t="s">
+      <c r="F75" s="99" t="s">
         <v>818</v>
       </c>
-      <c r="G75" s="98" t="s">
+      <c r="G75" s="99" t="s">
         <v>824</v>
       </c>
     </row>
@@ -64877,9 +64889,9 @@
       <c r="D76" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="E76" s="96"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
@@ -64919,13 +64931,13 @@
       <c r="D78" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="E78" s="98" t="s">
+      <c r="E78" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="F78" s="98" t="s">
+      <c r="F78" s="99" t="s">
         <v>819</v>
       </c>
-      <c r="G78" s="98" t="s">
+      <c r="G78" s="99" t="s">
         <v>825</v>
       </c>
     </row>
@@ -64942,9 +64954,9 @@
       <c r="D79" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="98"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="s">
@@ -65357,6 +65369,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E63:E64"/>
     <mergeCell ref="E78:E79"/>
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="G78:G79"/>
@@ -65366,12 +65384,6 @@
     <mergeCell ref="G75:G76"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -65379,6 +65391,73 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f4877444-78fa-4cfa-bafc-d6c64fafc061">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212">
+      <UserInfo>
+        <DisplayName>Saeed RAHMAN</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>IMPACT GENEVA PHU</DisplayName>
+        <AccountId>194</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hao CAI</DisplayName>
+        <AccountId>198</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeremy BINZ</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Guillaume NOBLET</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Nicholas ARCHDEACON</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sunhee MORAES</DisplayName>
+        <AccountId>157</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alin LUCHIAN</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Robin Urbaniak</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE51FB2AFBB2DD429D3D11FE759FFC43" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7a0d7500e7149ecc56fac50797369dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f4877444-78fa-4cfa-bafc-d6c64fafc061" xmlns:ns3="d0fa6634-326e-4532-91a2-52bea7ac9212" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="abe60af69cc399b3bbd8612636e68e97" ns2:_="" ns3:_="">
     <xsd:import namespace="f4877444-78fa-4cfa-bafc-d6c64fafc061"/>
@@ -65607,75 +65686,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f4877444-78fa-4cfa-bafc-d6c64fafc061">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212">
-      <UserInfo>
-        <DisplayName>Saeed RAHMAN</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>IMPACT GENEVA PHU</DisplayName>
-        <AccountId>194</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Hao CAI</DisplayName>
-        <AccountId>198</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeremy BINZ</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Guillaume NOBLET</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Nicholas ARCHDEACON</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sunhee MORAES</DisplayName>
-        <AccountId>157</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alin LUCHIAN</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Robin Urbaniak</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24284C3A-0370-43E3-96DD-5822E91FD64A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6CC0EC-6C10-4BFF-95EC-48B984E621F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65698,9 +65714,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6CC0EC-6C10-4BFF-95EC-48B984E621F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24284C3A-0370-43E3-96DD-5822E91FD64A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f4877444-78fa-4cfa-bafc-d6c64fafc061"/>
+    <ds:schemaRef ds:uri="d0fa6634-326e-4532-91a2-52bea7ac9212"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>